--- a/Orcamento.xlsx
+++ b/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-audrs\Desktop\Excel Templates\Accessibility Project\2017January\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B61B395-47D5-4736-91CB-8434E0D1A6F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1373DBFA-A44B-4BB6-A574-E7CDE1556695}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,13 +49,13 @@
     <t>R$ 30,00 * 30 * 4 = R$ 3600,00</t>
   </si>
   <si>
-    <t>Hora minima de R$30, durante trinta dias, trabalhando 4 horas por dia</t>
+    <t>Hora minima de R$30, durante 30 dias, trabalhando 4 horas por dia</t>
   </si>
   <si>
     <t>Prazo de Entrega de médio/longo prazo</t>
   </si>
   <si>
-    <t>R$ 900,00 * 1,40 = R$ 5040,00</t>
+    <t>R$ 3600,00 * 1,40 = R$ 5040,00</t>
   </si>
   <si>
     <t>Mais 40% por trabalho de longo ou médio prazo (1 pessoa)</t>
@@ -545,7 +545,7 @@
   <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
